--- a/testData/results/dfs_gcc_O0_bfs_gcc_O0_result.xlsx
+++ b/testData/results/dfs_gcc_O0_bfs_gcc_O0_result.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -976,40 +976,40 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>DFS</t>
+          <t>main</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>161</v>
+        <v>242</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>BFS</t>
+          <t>main</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>391</v>
+        <v>242</v>
       </c>
       <c r="E27" t="n">
-        <v>0.6533352771620222</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>main</t>
+          <t>_fini</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>242</v>
+        <v>13</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>main</t>
+          <t>_fini</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>242</v>
+        <v>13</v>
       </c>
       <c r="E28" t="n">
         <v>1</v>
@@ -1018,32 +1018,11 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>_fini</t>
+          <t>finalScore</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>13</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>_fini</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>13</v>
-      </c>
-      <c r="E29" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>finalScore</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>0.9876191170415007</v>
+        <v>0.9839390917983355</v>
       </c>
     </row>
   </sheetData>
